--- a/AC03_quadro.xlsx
+++ b/AC03_quadro.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipeclau\Documents\EstruturadeDados_AC02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57FF70A0-695F-4BD3-892D-51BC47145C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF0C46C-12BF-4A8F-8A92-5B732616544E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{A06F5BD5-8FBA-432E-B996-3378B17B1D19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Média_tempos" sheetId="1" r:id="rId1"/>
+    <sheet name="Bubble" sheetId="2" r:id="rId2"/>
+    <sheet name="Merge" sheetId="3" r:id="rId3"/>
+    <sheet name="Insertion" sheetId="4" r:id="rId4"/>
+    <sheet name="Quick" sheetId="5" r:id="rId5"/>
+    <sheet name="Counting" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="13">
   <si>
     <t>ALGORITMO</t>
   </si>
@@ -67,6 +72,12 @@
   <si>
     <t>N = 10000000</t>
   </si>
+  <si>
+    <t>Tempo acumulado</t>
+  </si>
+  <si>
+    <t>Tempo por execução</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +113,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,11 +171,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -168,6 +211,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,90 +535,2005 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B8C23F-5C10-4838-A7BE-31FAAF4E9C75}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="2">
+        <f>AVERAGE(Bubble!$B$4:$B$13)</f>
+        <v>9.0624999999999997E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <f>AVERAGE(Bubble!$D$4:$D$13)</f>
+        <v>8.3890624999999996</v>
+      </c>
+      <c r="E3" s="2">
+        <f>AVERAGE(Bubble!$F$4:$F$13)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(Bubble!$H$4:$H$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(Bubble!$J$3:$IJ$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="2">
+        <f>AVERAGE(Merge!$B$4:$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>AVERAGE(Merge!$D$4:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f>AVERAGE(Merge!$F$4:$F$13)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f>AVERAGE(Merge!$H$4:$H$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(Merge!$J$3:$IJ$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="2">
+        <f>AVERAGE(Insertion!$B$4:$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>AVERAGE(Insertion!$D$4:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f>AVERAGE(Insertion!$F$4:$F$13)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f>AVERAGE(Insertion!$H$4:$H$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f>AVERAGE(Insertion!$J$3:$IJ$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="2">
+        <f>AVERAGE(Quick!$B$4:$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>AVERAGE(Quick!$D$4:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <f>AVERAGE(Quick!$F$4:$F$13)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f>AVERAGE(Quick!$H$4:$H$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f>AVERAGE(Quick!$J$3:$IJ$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(Counting!$B$4:$B$13)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>AVERAGE(Counting!$D$4:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>AVERAGE(Counting!$F$4:$F$13)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>AVERAGE(Counting!$H$4:$H$13)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f>AVERAGE(Counting!$J$3:$IJ$4)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3917F-FE02-4E78-9A7B-5445715C8275}">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.109375</v>
+      </c>
+      <c r="B4" s="1">
+        <f>A4</f>
+        <v>0.109375</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.015625</v>
+      </c>
+      <c r="D4" s="1">
+        <f>C4</f>
+        <v>7.015625</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.171875</v>
+      </c>
+      <c r="B5" s="1">
+        <f>A5-A4</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14.046875</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5-C4</f>
+        <v>7.03125</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <f>E5-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>G5-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <f>I5-I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.234375</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21.34375</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D13" si="1">C6-C5</f>
+        <v>7.296875</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F13" si="2">E6-E5</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H13" si="3">G6-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J13" si="4">I6-I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>29.859375</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>8.515625</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0.390625</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40.953125</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>11.09375</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0.515625</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C9" s="1">
+        <v>48.671875</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>7.71875</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.578125</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>56.515625</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.84375</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.703125</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="1">
+        <v>64.671875</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>8.15625</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.109375</v>
+      </c>
+      <c r="C12" s="1">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>8.328125</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>83.890625</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>10.890625</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAA7B02-CDC0-4347-93D6-B5DFBD40F361}">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <f>A5-A4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f>C5-C4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <f>E5-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>G5-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <f>I5-I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:F13" si="1">C6-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6" si="2">G6-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6" si="3">I6-I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7" si="4">G7-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" ref="J7" si="5">I7-I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8" si="6">G8-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <f t="shared" ref="J8" si="7">I8-I7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9" si="8">G9-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f t="shared" ref="J9" si="9">I9-I8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10" si="10">G10-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10" si="11">I10-I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11" si="12">G11-G10</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11" si="13">I11-I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12" si="14">G12-G11</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12" si="15">I12-I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="16">G13-G12</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <f t="shared" ref="J13" si="17">I13-I12</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DD8BAD-D57B-427A-8B98-F991AD0D4ABE}">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <f>A5-A4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f>C5-C4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <f>E5-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>G5-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <f>I5-I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:F13" si="1">C6-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H13" si="2">G6-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J13" si="3">I6-I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34823432-D8F8-4E1D-A57C-0B64D5BE2DDB}">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <f>A5-A4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f>C5-C4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <f>E5-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>G5-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <f>I5-I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:F13" si="1">C6-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H13" si="2">G6-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J13" si="3">I6-I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF269313-E352-483C-AE38-9758147D3163}">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <f>A5-A4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f>C5-C4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <f>E5-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>G5-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <f>I5-I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:F13" si="1">C6-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H13" si="2">G6-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J13" si="3">I6-I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/AC03_quadro.xlsx
+++ b/AC03_quadro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipeclau\Documents\EstruturadeDados_AC02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF0C46C-12BF-4A8F-8A92-5B732616544E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B79EAF5-6A7C-468A-BCA7-48359F3B829D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{A06F5BD5-8FBA-432E-B996-3378B17B1D19}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="15">
   <si>
     <t>ALGORITMO</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Tempo por execução</t>
+  </si>
+  <si>
+    <t>Tempos em minutos</t>
+  </si>
+  <si>
+    <t>Tempo em segundos</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B8C23F-5C10-4838-A7BE-31FAAF4E9C75}">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,154 +557,158 @@
     <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13.77734375" customWidth="1"/>
+    <col min="9" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <f>AVERAGE(Bubble!$B$4:$B$13)</f>
-        <v>9.0624999999999997E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <f>AVERAGE(Bubble!$D$4:$D$13)</f>
-        <v>8.3890624999999996</v>
-      </c>
-      <c r="E3" s="2">
-        <f>AVERAGE(Bubble!$F$4:$F$13)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <f>AVERAGE(Bubble!$H$4:$H$13)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <f>AVERAGE(Bubble!$J$3:$IJ$4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
       <c r="C4" s="2">
-        <f>AVERAGE(Merge!$B$4:$B$13)</f>
-        <v>0</v>
+        <f>CONVERT(AVERAGE(Bubble!$B$5:$B$14),"sec","mn")</f>
+        <v>1.5104166666666666E-3</v>
       </c>
       <c r="D4" s="2">
-        <f>AVERAGE(Merge!$D$4:$D$13)</f>
-        <v>0</v>
+        <f>CONVERT(AVERAGE(Bubble!$D$5:$D$14),"sec","mn")</f>
+        <v>0.13981770833333332</v>
       </c>
       <c r="E4" s="2">
-        <f>AVERAGE(Merge!$F$4:$F$13)</f>
+        <f>CONVERT(AVERAGE(Bubble!$F$5:$F$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>AVERAGE(Merge!$H$4:$H$13)</f>
+        <f>CONVERT(AVERAGE(Bubble!$H$5:$H$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f>AVERAGE(Merge!$J$3:$IJ$4)</f>
+        <f>CONVERT(AVERAGE(Bubble!$J$4:$IJ$5),"sec","mn")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <f>AVERAGE(Insertion!$B$4:$B$13)</f>
+        <f>CONVERT(AVERAGE(Merge!$B$5:$B$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f>AVERAGE(Insertion!$D$4:$D$13)</f>
+        <f>CONVERT(AVERAGE(Merge!$D$5:$D$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f>AVERAGE(Insertion!$F$4:$F$13)</f>
+        <f>CONVERT(AVERAGE(Merge!$F$5:$F$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>AVERAGE(Insertion!$H$4:$H$13)</f>
+        <f>CONVERT(AVERAGE(Merge!$H$5:$H$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <f>AVERAGE(Insertion!$J$3:$IJ$4)</f>
+        <f>CONVERT(AVERAGE(Merge!$J$4:$IJ$5),"sec","mn")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <f>AVERAGE(Quick!$B$4:$B$13)</f>
+        <f>CONVERT(AVERAGE(Insertion!$B$5:$B$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f>AVERAGE(Quick!$D$4:$D$13)</f>
+        <f>CONVERT(AVERAGE(Insertion!$D$5:$D$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f>AVERAGE(Quick!$F$4:$F$13)</f>
+        <f>CONVERT(AVERAGE(Insertion!$F$5:$F$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f>AVERAGE(Quick!$H$4:$H$13)</f>
+        <f>CONVERT(AVERAGE(Insertion!$H$5:$H$14),"sec","mn")</f>
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>AVERAGE(Quick!$J$3:$IJ$4)</f>
+        <f>CONVERT(AVERAGE(Insertion!$J$4:$IJ$5),"sec","mn")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <f>CONVERT(AVERAGE(Quick!$B$5:$B$14),"sec","mn")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>CONVERT(AVERAGE(Quick!$D$5:$D$14),"sec","mn")</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>CONVERT(AVERAGE(Quick!$F$5:$F$14),"sec","mn")</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>CONVERT(AVERAGE(Quick!$H$5:$H$14),"sec","mn")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f>CONVERT(AVERAGE(Quick!$J$4:$IJ$5),"sec","mn")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(Counting!$B$4:$B$13)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <f>AVERAGE(Counting!$D$4:$D$13)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <f>AVERAGE(Counting!$F$4:$F$13)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <f>AVERAGE(Counting!$H$4:$H$13)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <f>AVERAGE(Counting!$J$3:$IJ$4)</f>
+      <c r="C8" s="2">
+        <f>CONVERT(AVERAGE(Counting!$B$5:$B$14),"sec","mn")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f>CONVERT(AVERAGE(Counting!$D$5:$D$14),"sec","mn")</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f>CONVERT(AVERAGE(Counting!$F$5:$F$14),"sec","mn")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f>CONVERT(AVERAGE(Counting!$H$5:$H$14),"sec","mn")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f>CONVERT(AVERAGE(Counting!$J$4:$IJ$5),"sec","mn")</f>
         <v>0</v>
       </c>
     </row>
@@ -710,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3917F-FE02-4E78-9A7B-5445715C8275}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,197 +741,171 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0.109375</v>
-      </c>
-      <c r="B4" s="1">
-        <f>A4</f>
-        <v>0.109375</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.015625</v>
-      </c>
-      <c r="D4" s="1">
-        <f>C4</f>
-        <v>7.015625</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f>G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <f>I4</f>
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>0.171875</v>
+        <v>0.109375</v>
       </c>
       <c r="B5" s="1">
-        <f>A5-A4</f>
-        <v>6.25E-2</v>
+        <f>A5</f>
+        <v>0.109375</v>
       </c>
       <c r="C5" s="1">
-        <v>14.046875</v>
+        <v>7.015625</v>
       </c>
       <c r="D5" s="1">
-        <f>C5-C4</f>
-        <v>7.03125</v>
+        <f>C5</f>
+        <v>7.015625</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <f>E5-E4</f>
+        <f>E5</f>
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f>G5-G4</f>
+        <f>G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f>I5-I4</f>
+        <f>I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.234375</v>
+        <v>0.171875</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <f>A6-A5</f>
         <v>6.25E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>21.34375</v>
+        <v>14.046875</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D13" si="1">C6-C5</f>
-        <v>7.296875</v>
+        <f>C6-C5</f>
+        <v>7.03125</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F13" si="2">E6-E5</f>
+        <f>E6-E5</f>
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H13" si="3">G6-G5</f>
+        <f>G6-G5</f>
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J13" si="4">I6-I5</f>
+        <f>I6-I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>0.3125</v>
+        <v>0.234375</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>7.8125E-2</v>
+        <f t="shared" ref="B7:B14" si="0">A7-A6</f>
+        <v>6.25E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>29.859375</v>
+        <v>21.34375</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>8.515625</v>
+        <f t="shared" ref="D7:D14" si="1">C7-C6</f>
+        <v>7.296875</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F7:F14" si="2">E7-E6</f>
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H7:H14" si="3">G7-G6</f>
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J7:J14" si="4">I7-I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>7.8125E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>40.953125</v>
+        <v>29.859375</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>11.09375</v>
+        <v>8.515625</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -941,18 +925,18 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0.515625</v>
+        <v>0.390625</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>48.671875</v>
+        <v>40.953125</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>7.71875</v>
+        <v>11.09375</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -972,18 +956,18 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>0.578125</v>
+        <v>0.515625</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C10" s="1">
-        <v>56.515625</v>
+        <v>48.671875</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>7.84375</v>
+        <v>7.71875</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1003,18 +987,18 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>0.703125</v>
+        <v>0.578125</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>64.671875</v>
+        <v>56.515625</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>8.15625</v>
+        <v>7.84375</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -1034,18 +1018,18 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>0.8125</v>
+        <v>0.703125</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="C12" s="1">
-        <v>73</v>
+        <v>64.671875</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>8.328125</v>
+        <v>8.15625</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -1065,18 +1049,18 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="C13" s="1">
-        <v>83.890625</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>10.890625</v>
+        <v>8.328125</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -1094,13 +1078,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>83.890625</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>10.890625</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1108,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAA7B02-CDC0-4347-93D6-B5DFBD40F361}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,149 +1144,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <f>A4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f>G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <f>I4</f>
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <f>A5-A4</f>
+        <f>A5</f>
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>C5-C4</f>
+        <f>C5</f>
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <f>E5-E4</f>
+        <f>E5</f>
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f>G5-G4</f>
+        <f>G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f>I5-I4</f>
+        <f>I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <f>A6-A5</f>
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:F13" si="1">C6-C5</f>
+        <f>C6-C5</f>
         <v>0</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f>E6-E5</f>
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f t="shared" ref="H6" si="2">G6-G5</f>
+        <f>G6-G5</f>
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <f t="shared" ref="J6" si="3">I6-I5</f>
+        <f>I6-I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B7:B14" si="0">A7-A6</f>
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D7:F14" si="1">C7-C6</f>
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
@@ -1281,12 +1274,12 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f t="shared" ref="H7" si="4">G7-G6</f>
+        <f t="shared" ref="H7" si="2">G7-G6</f>
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f t="shared" ref="J7" si="5">I7-I6</f>
+        <f t="shared" ref="J7" si="3">I7-I6</f>
         <v>0</v>
       </c>
     </row>
@@ -1308,12 +1301,12 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <f t="shared" ref="H8" si="6">G8-G7</f>
+        <f t="shared" ref="H8" si="4">G8-G7</f>
         <v>0</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <f t="shared" ref="J8" si="7">I8-I7</f>
+        <f t="shared" ref="J8" si="5">I8-I7</f>
         <v>0</v>
       </c>
     </row>
@@ -1335,12 +1328,12 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <f t="shared" ref="H9" si="8">G9-G8</f>
+        <f t="shared" ref="H9" si="6">G9-G8</f>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <f t="shared" ref="J9" si="9">I9-I8</f>
+        <f t="shared" ref="J9" si="7">I9-I8</f>
         <v>0</v>
       </c>
     </row>
@@ -1362,12 +1355,12 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <f t="shared" ref="H10" si="10">G10-G9</f>
+        <f t="shared" ref="H10" si="8">G10-G9</f>
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f t="shared" ref="J10" si="11">I10-I9</f>
+        <f t="shared" ref="J10" si="9">I10-I9</f>
         <v>0</v>
       </c>
     </row>
@@ -1389,12 +1382,12 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <f t="shared" ref="H11" si="12">G11-G10</f>
+        <f t="shared" ref="H11" si="10">G11-G10</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f t="shared" ref="J11" si="13">I11-I10</f>
+        <f t="shared" ref="J11" si="11">I11-I10</f>
         <v>0</v>
       </c>
     </row>
@@ -1416,12 +1409,12 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <f t="shared" ref="H12" si="14">G12-G11</f>
+        <f t="shared" ref="H12" si="12">G12-G11</f>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f t="shared" ref="J12" si="15">I12-I11</f>
+        <f t="shared" ref="J12" si="13">I12-I11</f>
         <v>0</v>
       </c>
     </row>
@@ -1443,22 +1436,49 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
-        <f t="shared" ref="H13" si="16">G13-G12</f>
+        <f t="shared" ref="H13" si="14">G13-G12</f>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <f t="shared" ref="J13" si="17">I13-I12</f>
+        <f t="shared" ref="J13" si="15">I13-I12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14" si="16">G14-G13</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14" si="17">I14-I13</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1466,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DD8BAD-D57B-427A-8B98-F991AD0D4ABE}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,149 +1507,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <f>A4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f>G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <f>I4</f>
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <f>A5-A4</f>
+        <f>A5</f>
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>C5-C4</f>
+        <f>C5</f>
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <f>E5-E4</f>
+        <f>E5</f>
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f>G5-G4</f>
+        <f>G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f>I5-I4</f>
+        <f>I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <f>A6-A5</f>
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:F13" si="1">C6-C5</f>
+        <f>C6-C5</f>
         <v>0</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f>E6-E5</f>
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H13" si="2">G6-G5</f>
+        <f>G6-G5</f>
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J13" si="3">I6-I5</f>
+        <f>I6-I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B7:B14" si="0">A7-A6</f>
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D7:F14" si="1">C7-C6</f>
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
@@ -1639,12 +1637,12 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H7:H14" si="2">G7-G6</f>
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J7:J14" si="3">I7-I6</f>
         <v>0</v>
       </c>
     </row>
@@ -1810,13 +1808,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1824,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34823432-D8F8-4E1D-A57C-0B64D5BE2DDB}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,336 +1870,341 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <f>A4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f>G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <f>I4</f>
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <f>A5-A4</f>
+        <f>A5</f>
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>C5-C4</f>
+        <f>C5</f>
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <f>E5-E4</f>
+        <f>E5</f>
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f>G5-G4</f>
+        <f>G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f>I5-I4</f>
+        <f>I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <f>A6-A5</f>
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:F13" si="1">C6-C5</f>
+        <f>C6-C5</f>
         <v>0</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f>E6-E5</f>
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H13" si="2">G6-G5</f>
+        <f>G6-G5</f>
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J13" si="3">I6-I5</f>
+        <f>I6-I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f>A7-A6</f>
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D7:F14" si="0">C7-C6</f>
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H7:H14" si="1">G7-G6</f>
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J7:J14" si="2">I7-I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
+        <f>A8-A7</f>
         <v>0</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f>A9-A8</f>
         <v>0</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <f>A10-A9</f>
         <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <f>A11-A10</f>
         <v>0</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
+        <f>A12-A11</f>
         <v>0</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
+        <f>A13-A12</f>
         <v>0</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <f>A14-A13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2182,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF269313-E352-483C-AE38-9758147D3163}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,149 +2233,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <f>A4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <f>G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <f>I4</f>
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <f>A5-A4</f>
+        <f>A5</f>
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>C5-C4</f>
+        <f>C5</f>
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <f>E5-E4</f>
+        <f>E5</f>
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f>G5-G4</f>
+        <f>G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f>I5-I4</f>
+        <f>I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B13" si="0">A6-A5</f>
+        <f>A6-A5</f>
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:F13" si="1">C6-C5</f>
+        <f>C6-C5</f>
         <v>0</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f>E6-E5</f>
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H13" si="2">G6-G5</f>
+        <f>G6-G5</f>
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J13" si="3">I6-I5</f>
+        <f>I6-I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B7:B14" si="0">A7-A6</f>
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D7:F14" si="1">C7-C6</f>
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
@@ -2355,12 +2363,12 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H7:H14" si="2">G7-G6</f>
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J7:J14" si="3">I7-I6</f>
         <v>0</v>
       </c>
     </row>
@@ -2526,13 +2534,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/AC03_quadro.xlsx
+++ b/AC03_quadro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipeclau\Documents\EstruturadeDados_AC02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B79EAF5-6A7C-468A-BCA7-48359F3B829D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB2B41-0F43-470A-B921-5A60245EAE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{A06F5BD5-8FBA-432E-B996-3378B17B1D19}"/>
+    <workbookView xWindow="3024" yWindow="1524" windowWidth="11820" windowHeight="8964" xr2:uid="{A06F5BD5-8FBA-432E-B996-3378B17B1D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Média_tempos" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="E4" s="2">
         <f>CONVERT(AVERAGE(Bubble!$F$5:$F$14),"sec","mn")</f>
-        <v>0</v>
+        <v>19.934374999999999</v>
       </c>
       <c r="F4" s="2">
         <f>CONVERT(AVERAGE(Bubble!$H$5:$H$14),"sec","mn")</f>
@@ -618,23 +618,23 @@
       </c>
       <c r="C5" s="2">
         <f>CONVERT(AVERAGE(Merge!$B$5:$B$14),"sec","mn")</f>
-        <v>0</v>
+        <v>4.947916666666666E-4</v>
       </c>
       <c r="D5" s="2">
         <f>CONVERT(AVERAGE(Merge!$D$5:$D$14),"sec","mn")</f>
-        <v>0</v>
+        <v>3.0729166666666669E-3</v>
       </c>
       <c r="E5" s="2">
         <f>CONVERT(AVERAGE(Merge!$F$5:$F$14),"sec","mn")</f>
-        <v>0</v>
+        <v>3.0624999999999999E-2</v>
       </c>
       <c r="F5" s="2">
         <f>CONVERT(AVERAGE(Merge!$H$5:$H$14),"sec","mn")</f>
-        <v>0</v>
+        <v>0.34830729166666669</v>
       </c>
       <c r="G5" s="2">
         <f>CONVERT(AVERAGE(Merge!$J$4:$IJ$5),"sec","mn")</f>
-        <v>0</v>
+        <v>2.2757812500000001</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -723,7 +723,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,10 +814,12 @@
         <f>C5</f>
         <v>7.015625</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1426.03125</v>
+      </c>
       <c r="F5" s="1">
         <f>E5</f>
-        <v>0</v>
+        <v>1426.03125</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
@@ -845,10 +847,12 @@
         <f>C6-C5</f>
         <v>7.03125</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>3587.140625</v>
+      </c>
       <c r="F6" s="1">
         <f>E6-E5</f>
-        <v>0</v>
+        <v>2161.109375</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
@@ -876,10 +880,12 @@
         <f t="shared" ref="D7:D14" si="1">C7-C6</f>
         <v>7.296875</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>4666.421875</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" ref="F7:F14" si="2">E7-E6</f>
-        <v>0</v>
+        <v>1079.28125</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
@@ -907,10 +913,12 @@
         <f t="shared" si="1"/>
         <v>8.515625</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>5528.96875</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>862.546875</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
@@ -938,10 +946,12 @@
         <f t="shared" si="1"/>
         <v>11.09375</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>6361.828125</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>832.859375</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
@@ -969,10 +979,12 @@
         <f t="shared" si="1"/>
         <v>7.71875</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>7202.75</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>840.921875</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
@@ -1000,10 +1012,12 @@
         <f t="shared" si="1"/>
         <v>7.84375</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>8070.65625</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>867.90625</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
@@ -1031,10 +1045,12 @@
         <f t="shared" si="1"/>
         <v>8.15625</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>8923.75</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>853.09375</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
@@ -1062,10 +1078,12 @@
         <f t="shared" si="1"/>
         <v>8.328125</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>10301.203125</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1377.453125</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
@@ -1093,10 +1111,12 @@
         <f t="shared" si="1"/>
         <v>10.890625</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>11960.625</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1659.421875</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
@@ -1125,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAA7B02-CDC0-4347-93D6-B5DFBD40F361}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,273 +1223,373 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>9.375E-2</v>
+      </c>
       <c r="B5" s="1">
         <f>A5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.140625</v>
+      </c>
       <c r="D5" s="1">
         <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>0.140625</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.21875</v>
+      </c>
       <c r="F5" s="1">
         <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>1.21875</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20.71875</v>
+      </c>
       <c r="H5" s="1">
         <f>G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>20.71875</v>
+      </c>
+      <c r="I5" s="1">
+        <v>136.546875</v>
+      </c>
       <c r="J5" s="1">
         <f>I5</f>
-        <v>0</v>
+        <v>136.546875</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>0.109375</v>
+      </c>
       <c r="B6" s="1">
         <f>A6-A5</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.296875</v>
+      </c>
       <c r="D6" s="1">
         <f>C6-C5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>0.15625</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.203125</v>
+      </c>
       <c r="F6" s="1">
         <f>E6-E5</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>0.984375</v>
+      </c>
+      <c r="G6" s="1">
+        <v>40.90625</v>
+      </c>
       <c r="H6" s="1">
         <f>G6-G5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>20.1875</v>
+      </c>
+      <c r="I6" s="1">
+        <v>271.90625</v>
+      </c>
       <c r="J6" s="1">
         <f>I6-I5</f>
-        <v>0</v>
+        <v>135.359375</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>0.140625</v>
+      </c>
       <c r="B7" s="1">
         <f t="shared" ref="B7:B14" si="0">A7-A6</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.390625</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:F14" si="1">C7-C6</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.15625</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>0.953125</v>
+      </c>
+      <c r="G7" s="1">
+        <v>66.953125</v>
+      </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7" si="2">G7-G6</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>26.046875</v>
+      </c>
+      <c r="I7" s="1">
+        <v>414.03125</v>
+      </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7" si="3">I7-I6</f>
-        <v>0</v>
+        <v>142.125</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>0.15625</v>
+      </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.578125</v>
+      </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.609375</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>1.453125</v>
+      </c>
+      <c r="G8" s="1">
+        <v>83.015625</v>
+      </c>
       <c r="H8" s="1">
         <f t="shared" ref="H8" si="4">G8-G7</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>16.0625</v>
+      </c>
+      <c r="I8" s="1">
+        <v>549.359375</v>
+      </c>
       <c r="J8" s="1">
         <f t="shared" ref="J8" si="5">I8-I7</f>
-        <v>0</v>
+        <v>135.328125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>0.203125</v>
+      </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.828125</v>
+      </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.15625</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>2.546875</v>
+      </c>
+      <c r="G9" s="1">
+        <v>107.71875</v>
+      </c>
       <c r="H9" s="1">
         <f t="shared" ref="H9" si="6">G9-G8</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>24.703125</v>
+      </c>
+      <c r="I9" s="1">
+        <v>684.703125</v>
+      </c>
       <c r="J9" s="1">
         <f t="shared" ref="J9" si="7">I9-I8</f>
-        <v>0</v>
+        <v>135.34375</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>0.234375</v>
+      </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0625</v>
+      </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>0.234375</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9.671875</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>2.515625</v>
+      </c>
+      <c r="G10" s="1">
+        <v>130.21875</v>
+      </c>
       <c r="H10" s="1">
         <f t="shared" ref="H10" si="8">G10-G9</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>823.21875</v>
+      </c>
       <c r="J10" s="1">
         <f t="shared" ref="J10" si="9">I10-I9</f>
-        <v>0</v>
+        <v>138.515625</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>0.25</v>
+      </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.28125</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11.859375</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>2.1875</v>
+      </c>
+      <c r="G11" s="1">
+        <v>147.75</v>
+      </c>
       <c r="H11" s="1">
         <f t="shared" ref="H11" si="10">G11-G10</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>17.53125</v>
+      </c>
+      <c r="I11" s="1">
+        <v>958.71875</v>
+      </c>
       <c r="J11" s="1">
         <f t="shared" ref="J11" si="11">I11-I10</f>
-        <v>0</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>0.265625</v>
+      </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.453125</v>
+      </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>0.171875</v>
+      </c>
+      <c r="E12" s="1">
+        <v>14.078125</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>2.21875</v>
+      </c>
+      <c r="G12" s="1">
+        <v>172.671875</v>
+      </c>
       <c r="H12" s="1">
         <f t="shared" ref="H12" si="12">G12-G11</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>24.921875</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1093.859375</v>
+      </c>
       <c r="J12" s="1">
         <f t="shared" ref="J12" si="13">I12-I11</f>
-        <v>0</v>
+        <v>135.140625</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>0.28125</v>
+      </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.65625</v>
+      </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>0.203125</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16.21875</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>2.140625</v>
+      </c>
+      <c r="G13" s="1">
+        <v>188.640625</v>
+      </c>
       <c r="H13" s="1">
         <f t="shared" ref="H13" si="14">G13-G12</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>15.96875</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1229.359375</v>
+      </c>
       <c r="J13" s="1">
         <f t="shared" ref="J13" si="15">I13-I12</f>
-        <v>0</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>0.296875</v>
+      </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.84375</v>
+      </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18.375</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>2.15625</v>
+      </c>
+      <c r="G14" s="1">
+        <v>208.984375</v>
+      </c>
       <c r="H14" s="1">
         <f t="shared" ref="H14" si="16">G14-G13</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>20.34375</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1364.71875</v>
+      </c>
       <c r="J14" s="1">
         <f t="shared" ref="J14" si="17">I14-I13</f>
-        <v>0</v>
+        <v>135.359375</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +2078,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <f>A6-A5</f>
+        <f t="shared" ref="B6:B14" si="0">A6-A5</f>
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
@@ -1985,216 +2105,216 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <f>A7-A6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:F14" si="0">C7-C6</f>
+        <f t="shared" ref="D7:F14" si="1">C7-C6</f>
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H14" si="1">G7-G6</f>
+        <f t="shared" ref="H7:H14" si="2">G7-G6</f>
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J14" si="2">I7-I6</f>
+        <f t="shared" ref="J7:J14" si="3">I7-I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <f>A8-A7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <f>A9-A8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <f>A10-A9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <f>A11-A10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <f>A12-A11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
-        <f>A13-A12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <f>A14-A13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/AC03_quadro.xlsx
+++ b/AC03_quadro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipeclau\Documents\EstruturadeDados_AC02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB2B41-0F43-470A-B921-5A60245EAE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B5672E-1E23-4D88-A9A3-192DFE01738A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3024" yWindow="1524" windowWidth="11820" windowHeight="8964" xr2:uid="{A06F5BD5-8FBA-432E-B996-3378B17B1D19}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,15 +643,15 @@
       </c>
       <c r="C6" s="2">
         <f>CONVERT(AVERAGE(Insertion!$B$5:$B$14),"sec","mn")</f>
-        <v>0</v>
+        <v>9.6354166666666669E-4</v>
       </c>
       <c r="D6" s="2">
         <f>CONVERT(AVERAGE(Insertion!$D$5:$D$14),"sec","mn")</f>
-        <v>0</v>
+        <v>8.533854166666667E-2</v>
       </c>
       <c r="E6" s="2">
         <f>CONVERT(AVERAGE(Insertion!$F$5:$F$14),"sec","mn")</f>
-        <v>0</v>
+        <v>8.533854166666667E-2</v>
       </c>
       <c r="F6" s="2">
         <f>CONVERT(AVERAGE(Insertion!$H$5:$H$14),"sec","mn")</f>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DD8BAD-D57B-427A-8B98-F991AD0D4ABE}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,20 +1686,26 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>9.375E-2</v>
+      </c>
       <c r="B5" s="1">
         <f>A5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.625</v>
+      </c>
       <c r="D5" s="1">
         <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>4.625</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.625</v>
+      </c>
       <c r="F5" s="1">
         <f>E5</f>
-        <v>0</v>
+        <v>4.625</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
@@ -1713,20 +1719,26 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>0.125</v>
+      </c>
       <c r="B6" s="1">
         <f>A6-A5</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.078125</v>
+      </c>
       <c r="D6" s="1">
         <f>C6-C5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>4.453125</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.078125</v>
+      </c>
       <c r="F6" s="1">
         <f>E6-E5</f>
-        <v>0</v>
+        <v>4.453125</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
@@ -1740,20 +1752,26 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>0.171875</v>
+      </c>
       <c r="B7" s="1">
         <f t="shared" ref="B7:B14" si="0">A7-A6</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13.78125</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:F14" si="1">C7-C6</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>4.703125</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13.78125</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.703125</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
@@ -1767,20 +1785,26 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>0.234375</v>
+      </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18.34375</v>
+      </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>4.5625</v>
+      </c>
+      <c r="E8" s="1">
+        <v>18.34375</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5625</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
@@ -1794,20 +1818,26 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>0.3125</v>
+      </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22.8125</v>
+      </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>4.46875</v>
+      </c>
+      <c r="E9" s="1">
+        <v>22.8125</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.46875</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
@@ -1821,20 +1851,26 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>0.375</v>
+      </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>28.34375</v>
+      </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>5.53125</v>
+      </c>
+      <c r="E10" s="1">
+        <v>28.34375</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.53125</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
@@ -1848,20 +1884,26 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>0.421875</v>
+      </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>33.5625</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>5.21875</v>
+      </c>
+      <c r="E11" s="1">
+        <v>33.5625</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.21875</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
@@ -1875,20 +1917,26 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>0.46875</v>
+      </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>38.59375</v>
+      </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>5.03125</v>
+      </c>
+      <c r="E12" s="1">
+        <v>38.59375</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.03125</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
@@ -1902,20 +1950,26 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>0.512625</v>
+      </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>4.3874999999999997E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45.84375</v>
+      </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>7.25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45.84375</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
@@ -1929,20 +1983,26 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>0.578125</v>
+      </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>51.203125</v>
+      </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>5.359375</v>
+      </c>
+      <c r="E14" s="1">
+        <v>51.203125</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.359375</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">

--- a/AC03_quadro.xlsx
+++ b/AC03_quadro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipeclau\Documents\EstruturadeDados_AC02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B5672E-1E23-4D88-A9A3-192DFE01738A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7644A08B-5A52-4C5D-9251-1B602280F0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="1524" windowWidth="11820" windowHeight="8964" xr2:uid="{A06F5BD5-8FBA-432E-B996-3378B17B1D19}"/>
+    <workbookView xWindow="4584" yWindow="1296" windowWidth="11820" windowHeight="8964" tabRatio="798" xr2:uid="{A06F5BD5-8FBA-432E-B996-3378B17B1D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Média_tempos" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -227,6 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B8C23F-5C10-4838-A7BE-31FAAF4E9C75}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,23 +677,23 @@
       </c>
       <c r="C7" s="2">
         <f>CONVERT(AVERAGE(Quick!$B$5:$B$14),"sec","mn")</f>
-        <v>0</v>
+        <v>1.3020833333333333E-4</v>
       </c>
       <c r="D7" s="2">
         <f>CONVERT(AVERAGE(Quick!$D$5:$D$14),"sec","mn")</f>
-        <v>0</v>
+        <v>5.9895833333333329E-4</v>
       </c>
       <c r="E7" s="2">
         <f>CONVERT(AVERAGE(Quick!$F$5:$F$14),"sec","mn")</f>
-        <v>0</v>
+        <v>6.0416666666666665E-3</v>
       </c>
       <c r="F7" s="2">
         <f>CONVERT(AVERAGE(Quick!$H$5:$H$14),"sec","mn")</f>
-        <v>0</v>
+        <v>7.8541666666666676E-2</v>
       </c>
       <c r="G7" s="2">
         <f>CONVERT(AVERAGE(Quick!$J$4:$IJ$5),"sec","mn")</f>
-        <v>0</v>
+        <v>1.3171875</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -711,6 +720,9 @@
         <f>CONVERT(AVERAGE(Counting!$J$4:$IJ$5),"sec","mn")</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2031,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34823432-D8F8-4E1D-A57C-0B64D5BE2DDB}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,273 +2121,373 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4.6875E-2</v>
+      </c>
       <c r="B5" s="1">
         <f>A5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.25E-2</v>
+      </c>
       <c r="D5" s="1">
         <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.453125</v>
+      </c>
       <c r="F5" s="1">
         <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>0.453125</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.953125</v>
+      </c>
       <c r="H5" s="1">
         <f>G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>4.953125</v>
+      </c>
+      <c r="I5" s="1">
+        <v>79.03125</v>
+      </c>
       <c r="J5" s="1">
         <f>I5</f>
-        <v>0</v>
+        <v>79.03125</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>4.6875E-2</v>
+      </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B14" si="0">A6-A5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>9.375E-2</v>
+      </c>
       <c r="D6" s="1">
         <f>C6-C5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.875</v>
+      </c>
       <c r="F6" s="1">
         <f>E6-E5</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>0.421875</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.609375</v>
+      </c>
       <c r="H6" s="1">
         <f>G6-G5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>4.65625</v>
+      </c>
+      <c r="I6" s="1">
+        <v>216.265625</v>
+      </c>
       <c r="J6" s="1">
         <f>I6-I5</f>
-        <v>0</v>
+        <v>137.234375</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>4.6875E-2</v>
+      </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>0.125</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:F14" si="1">C7-C6</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.328125</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>0.453125</v>
+      </c>
+      <c r="G7" s="1">
+        <v>14.390625</v>
+      </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H14" si="2">G7-G6</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>4.78125</v>
+      </c>
+      <c r="I7" s="1">
+        <v>374.84375</v>
+      </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J14" si="3">I7-I6</f>
-        <v>0</v>
+        <v>158.578125</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>4.6875E-2</v>
+      </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>0.171875</v>
+      </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.671875</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>0.34375</v>
+      </c>
+      <c r="G8" s="1">
+        <v>19.140625</v>
+      </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>4.75</v>
+      </c>
+      <c r="I8" s="1">
+        <v>485.40625</v>
+      </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110.5625</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>4.6875E-2</v>
+      </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>0.203125</v>
+      </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>0.328125</v>
+      </c>
+      <c r="G9" s="1">
+        <v>23.765625</v>
+      </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>4.625</v>
+      </c>
+      <c r="I9" s="1">
+        <v>599.125</v>
+      </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>113.71875</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>6.25E-2</v>
+      </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.234375</v>
+      </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.3125</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>0.3125</v>
+      </c>
+      <c r="G10" s="1">
+        <v>28.25</v>
+      </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>4.484375</v>
+      </c>
+      <c r="I10" s="1">
+        <v>743.578125</v>
+      </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>144.453125</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>6.25E-2</v>
+      </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.28125</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.640625</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>0.328125</v>
+      </c>
+      <c r="G11" s="1">
+        <v>32.8125</v>
+      </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>4.5625</v>
+      </c>
+      <c r="I11" s="1">
+        <v>873.890625</v>
+      </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>130.3125</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>6.25E-2</v>
+      </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>0.296875</v>
+      </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.953125</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>0.3125</v>
+      </c>
+      <c r="G12" s="1">
+        <v>37.6875</v>
+      </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>4.875</v>
+      </c>
+      <c r="I12" s="1">
+        <v>960.59375</v>
+      </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>86.703125</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.328125</v>
+      </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.28125</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>0.328125</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42.4375</v>
+      </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>4.75</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1036.921875</v>
+      </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76.328125</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>0.359375</v>
+      </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.625</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>0.34375</v>
+      </c>
+      <c r="G14" s="1">
+        <v>47.125</v>
+      </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>4.6875</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1154.078125</v>
+      </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>117.15625</v>
       </c>
     </row>
   </sheetData>

--- a/AC03_quadro.xlsx
+++ b/AC03_quadro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipeclau\Documents\EstruturadeDados_AC02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7644A08B-5A52-4C5D-9251-1B602280F0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA256CF-39F5-4C69-BCEA-0F59E12A9835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4584" yWindow="1296" windowWidth="11820" windowHeight="8964" tabRatio="798" xr2:uid="{A06F5BD5-8FBA-432E-B996-3378B17B1D19}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="19164" windowHeight="8964" tabRatio="798" xr2:uid="{A06F5BD5-8FBA-432E-B996-3378B17B1D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Média_tempos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="16">
   <si>
     <t>ALGORITMO</t>
   </si>
@@ -84,11 +84,17 @@
   <si>
     <t>Tempo em segundos</t>
   </si>
+  <si>
+    <t>*Não conseguimos executar. Deixamos executando por mais de 2 horas, e não tinha dado retorno ainda.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,10 +221,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,18 +234,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -553,12 +593,12 @@
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -577,154 +617,177 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="11">
         <f>CONVERT(AVERAGE(Bubble!$B$5:$B$14),"sec","mn")</f>
         <v>1.5104166666666666E-3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="11">
         <f>CONVERT(AVERAGE(Bubble!$D$5:$D$14),"sec","mn")</f>
         <v>0.13981770833333332</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="11">
         <f>CONVERT(AVERAGE(Bubble!$F$5:$F$14),"sec","mn")</f>
         <v>19.934374999999999</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="11">
         <f>CONVERT(AVERAGE(Bubble!$H$5:$H$14),"sec","mn")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="11">
         <f>CONVERT(AVERAGE(Bubble!$J$4:$IJ$5),"sec","mn")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="11">
         <f>CONVERT(AVERAGE(Merge!$B$5:$B$14),"sec","mn")</f>
         <v>4.947916666666666E-4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="11">
         <f>CONVERT(AVERAGE(Merge!$D$5:$D$14),"sec","mn")</f>
         <v>3.0729166666666669E-3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="11">
         <f>CONVERT(AVERAGE(Merge!$F$5:$F$14),"sec","mn")</f>
         <v>3.0624999999999999E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="11">
         <f>CONVERT(AVERAGE(Merge!$H$5:$H$14),"sec","mn")</f>
         <v>0.34830729166666669</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="11">
         <f>CONVERT(AVERAGE(Merge!$J$4:$IJ$5),"sec","mn")</f>
         <v>2.2757812500000001</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="11">
         <f>CONVERT(AVERAGE(Insertion!$B$5:$B$14),"sec","mn")</f>
         <v>9.6354166666666669E-4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="11">
         <f>CONVERT(AVERAGE(Insertion!$D$5:$D$14),"sec","mn")</f>
         <v>8.533854166666667E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="11">
         <f>CONVERT(AVERAGE(Insertion!$F$5:$F$14),"sec","mn")</f>
         <v>8.533854166666667E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="11">
         <f>CONVERT(AVERAGE(Insertion!$H$5:$H$14),"sec","mn")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="11">
         <f>CONVERT(AVERAGE(Insertion!$J$4:$IJ$5),"sec","mn")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="11">
         <f>CONVERT(AVERAGE(Quick!$B$5:$B$14),"sec","mn")</f>
         <v>1.3020833333333333E-4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="11">
         <f>CONVERT(AVERAGE(Quick!$D$5:$D$14),"sec","mn")</f>
         <v>5.9895833333333329E-4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="11">
         <f>CONVERT(AVERAGE(Quick!$F$5:$F$14),"sec","mn")</f>
         <v>6.0416666666666665E-3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="11">
         <f>CONVERT(AVERAGE(Quick!$H$5:$H$14),"sec","mn")</f>
         <v>7.8541666666666676E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="11">
         <f>CONVERT(AVERAGE(Quick!$J$4:$IJ$5),"sec","mn")</f>
         <v>1.3171875</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="11">
         <f>CONVERT(AVERAGE(Counting!$B$5:$B$14),"sec","mn")</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+        <v>1.3020833333333333E-4</v>
+      </c>
+      <c r="D8" s="11">
         <f>CONVERT(AVERAGE(Counting!$D$5:$D$14),"sec","mn")</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="E8" s="11">
         <f>CONVERT(AVERAGE(Counting!$F$5:$F$14),"sec","mn")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+        <v>2.8125000000000003E-3</v>
+      </c>
+      <c r="F8" s="11">
         <f>CONVERT(AVERAGE(Counting!$H$5:$H$14),"sec","mn")</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+        <v>2.7630208333333333E-2</v>
+      </c>
+      <c r="G8" s="11">
         <f>CONVERT(AVERAGE(Counting!$J$4:$IJ$5),"sec","mn")</f>
-        <v>0</v>
-      </c>
+        <v>0.30677083333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="11"/>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:G10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C4:G8">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:G10">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Não conseguimos executar. Deixamos executando por mais de 2 horas, e não tinha dado retorno ainda.">
+      <formula>NOT(ISERROR(SEARCH("Não conseguimos executar. Deixamos executando por mais de 2 horas, e não tinha dado retorno ainda.",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -780,34 +843,34 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1203,34 +1266,34 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1666,34 +1729,34 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2043,7 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34823432-D8F8-4E1D-A57C-0B64D5BE2DDB}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2089,34 +2152,34 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2506,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF269313-E352-483C-AE38-9758147D3163}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2552,305 +2615,405 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B5" s="1">
         <f>A5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.6875E-2</v>
+      </c>
       <c r="D5" s="1">
         <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.21875</v>
+      </c>
       <c r="F5" s="1">
         <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>0.21875</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.71875</v>
+      </c>
       <c r="H5" s="1">
         <f>G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>1.71875</v>
+      </c>
+      <c r="I5" s="1">
+        <v>18.40625</v>
+      </c>
       <c r="J5" s="1">
         <f>I5</f>
-        <v>0</v>
+        <v>18.40625</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B6" s="1">
         <f>A6-A5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>6.25E-2</v>
+      </c>
       <c r="D6" s="1">
         <f>C6-C5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.375</v>
+      </c>
       <c r="F6" s="1">
         <f>E6-E5</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.375</v>
+      </c>
       <c r="H6" s="1">
         <f>G6-G5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>1.65625</v>
+      </c>
+      <c r="I6" s="1">
+        <v>39.65625</v>
+      </c>
       <c r="J6" s="1">
         <f>I6-I5</f>
-        <v>0</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B7" s="1">
         <f t="shared" ref="B7:B14" si="0">A7-A6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:F14" si="1">C7-C6</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.546875</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>0.171875</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.875</v>
+      </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H14" si="2">G7-G6</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>59.125</v>
+      </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J14" si="3">I7-I6</f>
-        <v>0</v>
+        <v>19.46875</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>9.375E-2</v>
+      </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.703125</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.34375</v>
+      </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>1.46875</v>
+      </c>
+      <c r="I8" s="1">
+        <v>81.203125</v>
+      </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22.078125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>0.109375</v>
+      </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.859375</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.859375</v>
+      </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>1.515625</v>
+      </c>
+      <c r="I9" s="1">
+        <v>102.328125</v>
+      </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>0.125</v>
+      </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.015625</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9.296875</v>
+      </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>1.4375</v>
+      </c>
+      <c r="I10" s="1">
+        <v>124.203125</v>
+      </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.140625</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.1875</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>0.171875</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10.734375</v>
+      </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>1.4375</v>
+      </c>
+      <c r="I11" s="1">
+        <v>144.390625</v>
+      </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.1875</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>0.15625</v>
+      </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.390625</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>0.203125</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12.71875</v>
+      </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>1.984375</v>
+      </c>
+      <c r="I12" s="1">
+        <v>164.51562000000001</v>
+      </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.124995000000013</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>0.171875</v>
+      </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.51562</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>0.12499499999999997</v>
+      </c>
+      <c r="G13" s="1">
+        <v>14.765625</v>
+      </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>2.046875</v>
+      </c>
+      <c r="I13" s="1">
+        <v>183.890625</v>
+      </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.375004999999987</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>7.8125E-2</v>
+      </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>0.1875</v>
+      </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.6875</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>0.17188000000000003</v>
+      </c>
+      <c r="G14" s="1">
+        <v>16.578125</v>
+      </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>1.8125</v>
+      </c>
+      <c r="I14" s="1">
+        <v>199.84375</v>
+      </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15.953125</v>
       </c>
     </row>
   </sheetData>
